--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2087,16 +2087,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14639000</v>
+        <v>3690000</v>
       </c>
       <c r="E62" s="3">
-        <v>14555000</v>
+        <v>3606000</v>
       </c>
       <c r="F62" s="3">
-        <v>14601000</v>
+        <v>3652000</v>
       </c>
       <c r="G62" s="3">
-        <v>14752000</v>
+        <v>3803000</v>
       </c>
       <c r="H62" s="3">
         <v>2752000</v>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1676000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1695000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1726000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1801000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1933000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1942000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1997000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>606000</v>
+      </c>
+      <c r="F9" s="3">
         <v>620000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>629000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>657000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>685000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>730000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>729000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>771000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1056000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1066000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1069000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1116000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1203000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1213000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1226000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-4180000</v>
+      </c>
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>210000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>134000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>370000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>175000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>171000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>333000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F15" s="3">
         <v>387000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>394000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>392000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>397000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>415000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>420000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>422000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-2878000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1442000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1626000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1587000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1859000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1764000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1778000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1971000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4494000</v>
+      </c>
+      <c r="F18" s="3">
         <v>234000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>69000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>139000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-58000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>169000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>164000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-10000</v>
       </c>
       <c r="K20" s="3">
         <v>-9000</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4789000</v>
+      </c>
+      <c r="F21" s="3">
         <v>623000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>449000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>517000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>319000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>589000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>575000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>438000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F22" s="3">
         <v>89000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>98000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>121000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>160000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>383000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>391000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>382000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="F23" s="3">
         <v>147000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-43000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-238000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-209000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-236000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-366000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="F24" s="3">
         <v>87000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-57000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-74000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-181000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-186000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-162000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="F27" s="3">
         <v>60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-50000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-181000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-186000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-162000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-345000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>10000</v>
       </c>
       <c r="K32" s="3">
         <v>9000</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="F33" s="3">
         <v>60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-50000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-181000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-186000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-162000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-345000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="F35" s="3">
         <v>60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-50000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-181000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-186000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-162000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-345000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>993000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2107000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1829000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1767000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2290000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>941000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>760000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>683000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>521000</v>
+      </c>
+      <c r="F43" s="3">
         <v>562000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>638000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>666000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>681000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>652000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>682000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>709000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>111000</v>
+      </c>
+      <c r="F45" s="3">
         <v>178000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>187000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>205000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>248000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1609000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1595000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1617000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1625000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2847000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2654000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2638000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3219000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3202000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3037000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3009000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>9000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>8000</v>
       </c>
       <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8918000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8686000</v>
+      </c>
+      <c r="F48" s="3">
         <v>12987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12931000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12858000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12845000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12890000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13167000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13169000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4307000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4389000</v>
+      </c>
+      <c r="F49" s="3">
         <v>598000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>677000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>757000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>838000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>921000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1020000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1120000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>402000</v>
+      </c>
+      <c r="F52" s="3">
         <v>519000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>524000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>526000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>557000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>467000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>264000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>263000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15388000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15102000</v>
+      </c>
+      <c r="F54" s="3">
         <v>16960000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16795000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16787000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>17467000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17488000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17488000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17561000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,132 +2225,158 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>561000</v>
+      </c>
+      <c r="F57" s="3">
         <v>507000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>540000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>564000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>534000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>357000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>437000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>453000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="3">
         <v>5782000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5781000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5701000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6446000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17306000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1019000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1022000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>815000</v>
+      </c>
+      <c r="F59" s="3">
         <v>862000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>819000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>847000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>832000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1566000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1348000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1265000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7151000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7140000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7112000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7812000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19229000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2804000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2740000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10949000</v>
+        <v>6996000</v>
       </c>
       <c r="E61" s="3">
-        <v>10949000</v>
+        <v>7007000</v>
       </c>
       <c r="F61" s="3">
         <v>10949000</v>
@@ -2099,48 +2385,60 @@
         <v>10949000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="I61" s="3">
+        <v>10949000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>16450000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16438000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3690000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3606000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3652000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3803000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2752000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2628000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2486000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11003000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10854000</v>
+      </c>
+      <c r="F66" s="3">
         <v>21790000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21695000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21713000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22564000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>21981000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21882000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21664000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4248000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="F81" s="3">
         <v>60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-50000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-181000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-186000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-162000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-345000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F83" s="3">
         <v>387000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>394000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>392000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>397000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>415000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>420000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>422000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-939000</v>
+      </c>
+      <c r="F89" s="3">
         <v>665000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>497000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>542000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>473000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>477000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>405000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>246000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-385000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-384000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-356000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-314000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-225000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-286000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-328000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-318000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-380000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-334000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-313000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>910000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-282000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-314000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-315000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-102000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-754000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>485000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1121000</v>
+      </c>
+      <c r="F102" s="3">
         <v>278000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>61000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-525000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1359000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>182000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>77000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>416000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1543000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1576000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1616000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1676000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1695000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1726000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1801000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1933000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1942000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1997000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E9" s="3">
         <v>590000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>606000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>620000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>629000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>657000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>685000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>730000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>729000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>771000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E10" s="3">
         <v>986000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1010000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1056000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1066000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1069000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1116000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1203000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1213000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1226000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +926,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4180000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>210000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>134000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>370000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>175000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>171000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>333000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E15" s="3">
         <v>273000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>298000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>387000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>394000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>392000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>397000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>415000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>420000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>422000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1292000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-2878000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1442000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1626000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1587000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1859000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1764000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1778000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1971000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E18" s="3">
         <v>284000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4494000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>69000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>139000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>169000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-37000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-14000</v>
       </c>
       <c r="H20" s="3">
         <v>-14000</v>
       </c>
       <c r="I20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E21" s="3">
         <v>520000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4789000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>623000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>449000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>517000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>319000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>589000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>575000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>438000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E22" s="3">
         <v>90000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>91000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>89000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>98000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>121000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>160000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>383000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>391000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>382000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E23" s="3">
         <v>157000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-238000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-209000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-236000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-366000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-180000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>87000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-57000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-74000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E26" s="3">
         <v>126000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4580000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-181000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-186000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-162000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-345000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E27" s="3">
         <v>126000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4580000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-50000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-181000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-186000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-162000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-345000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E32" s="3">
         <v>37000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>14000</v>
       </c>
       <c r="H32" s="3">
         <v>14000</v>
       </c>
       <c r="I32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E33" s="3">
         <v>126000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4580000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-181000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-186000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-162000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-345000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E35" s="3">
         <v>126000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4580000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-181000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-186000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-162000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-345000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1211000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>993000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2107000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1829000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1767000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2290000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>941000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>760000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>683000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1866,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E43" s="3">
         <v>482000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>521000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>562000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>638000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>666000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>681000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>652000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>682000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>709000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,95 +1942,104 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E45" s="3">
         <v>94000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>111000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>178000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>187000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>205000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>248000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1609000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1595000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1617000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1787000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1625000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2847000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2654000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2638000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3219000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3202000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3037000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3009000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>9000</v>
       </c>
       <c r="H47" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="I47" s="3">
         <v>8000</v>
@@ -1943,8 +2047,8 @@
       <c r="J47" s="3">
         <v>8000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>8000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -1952,78 +2056,87 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9199000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8918000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8686000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12931000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12858000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12845000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12890000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13167000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13169000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4227000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4307000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4389000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>598000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>677000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>757000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>838000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>921000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1020000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1120000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E52" s="3">
         <v>376000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>402000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>519000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>524000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>526000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>557000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>467000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>264000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>263000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16481000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15388000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15102000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16960000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16795000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16787000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17467000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>17488000</v>
       </c>
       <c r="K54" s="3">
         <v>17488000</v>
       </c>
       <c r="L54" s="3">
+        <v>17488000</v>
+      </c>
+      <c r="M54" s="3">
         <v>17561000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E57" s="3">
         <v>583000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>561000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>507000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>540000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>564000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>534000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>357000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>437000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>453000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2274,112 +2407,121 @@
         <v>15000</v>
       </c>
       <c r="F58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="3">
         <v>5782000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5781000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5701000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6446000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17306000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1019000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1022000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E59" s="3">
         <v>882000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>815000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>862000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>819000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>847000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>832000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1566000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1348000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1265000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1480000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1391000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7151000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7140000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7112000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7812000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19229000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2804000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2740000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7968000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6996000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7007000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10949000</v>
       </c>
       <c r="G61" s="3">
         <v>10949000</v>
@@ -2391,54 +2533,60 @@
         <v>10949000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>16450000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16438000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2527000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2456000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3690000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3606000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3652000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3803000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2752000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2628000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2486000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11881000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11003000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10854000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21790000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21695000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21713000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22564000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21981000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21882000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21664000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E72" s="3">
         <v>225000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>99000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4385000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4248000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E81" s="3">
         <v>126000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4580000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-181000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-186000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-162000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-345000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E83" s="3">
         <v>273000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>298000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>387000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>394000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>392000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>397000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>415000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>420000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>422000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E89" s="3">
         <v>603000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-939000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>665000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>497000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>542000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>473000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>477000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>405000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>246000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-559000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-377000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-385000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-384000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-356000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-314000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-225000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-286000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-328000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-318000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-548000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-376000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-379000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-380000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-334000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-313000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>910000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-282000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-314000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-315000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>197000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-102000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-754000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>485000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E102" s="3">
         <v>217000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1121000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>278000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-525000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1359000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>182000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>416000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1447000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1543000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1576000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1616000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1676000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1695000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1726000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1801000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1933000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1942000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1997000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E9" s="3">
         <v>546000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>590000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>606000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>620000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>629000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>657000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>685000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>730000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>729000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>771000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E10" s="3">
         <v>997000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>986000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1010000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1056000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1066000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1069000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1116000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1203000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1213000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1226000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4180000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>210000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>134000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>370000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>175000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>171000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>333000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E15" s="3">
         <v>282000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>273000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>298000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>387000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>394000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>392000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>397000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>415000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>420000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>422000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1271000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1292000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-2878000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1442000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1626000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1587000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1859000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1764000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1778000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1971000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E18" s="3">
         <v>272000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>284000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4494000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>234000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>69000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>139000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>169000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>164000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E20" s="3">
         <v>34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-37000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-14000</v>
       </c>
       <c r="I20" s="3">
         <v>-14000</v>
       </c>
       <c r="J20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E21" s="3">
         <v>588000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>520000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4789000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>623000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>449000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>517000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>319000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>589000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>575000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>438000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E22" s="3">
         <v>105000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>90000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>91000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>89000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>98000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>121000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>160000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>383000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>391000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>382000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E23" s="3">
         <v>201000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>157000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4400000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-238000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-209000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-236000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-366000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-180000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>87000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-57000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-74000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E26" s="3">
         <v>189000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>126000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4580000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-181000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-186000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-162000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-345000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E27" s="3">
         <v>189000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>126000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4580000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-181000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-186000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-162000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-345000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>37000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>14000</v>
       </c>
       <c r="I32" s="3">
         <v>14000</v>
       </c>
       <c r="J32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E33" s="3">
         <v>189000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>126000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4580000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-181000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-186000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-162000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-345000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E35" s="3">
         <v>189000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>126000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4580000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-181000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-186000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-162000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-345000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,69 +1879,73 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2127000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1211000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>993000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2107000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1829000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1767000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2290000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>941000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>760000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>683000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>900000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1869,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E43" s="3">
         <v>488000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>482000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>521000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>562000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>638000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>666000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>681000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>652000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>682000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>709000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,46 +2041,52 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E45" s="3">
         <v>73000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>94000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>111000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>178000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>187000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>205000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>248000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1609000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1595000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1617000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1992,57 +2094,60 @@
         <v>2688000</v>
       </c>
       <c r="E46" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1787000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1625000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2847000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2654000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2638000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3219000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3202000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3037000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3009000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>9000</v>
       </c>
       <c r="I47" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="J47" s="3">
         <v>8000</v>
@@ -2050,8 +2155,8 @@
       <c r="K47" s="3">
         <v>8000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>8000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9575000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9199000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8918000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8686000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12931000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12858000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12845000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12890000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13167000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13169000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4227000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4307000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4389000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>598000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>677000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>757000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>838000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>921000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1020000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1120000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E52" s="3">
         <v>367000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>376000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>402000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>519000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>524000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>526000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>557000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>467000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>264000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>263000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16755000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16481000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15388000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15102000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16960000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16795000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16787000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17467000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>17488000</v>
       </c>
       <c r="L54" s="3">
         <v>17488000</v>
       </c>
       <c r="M54" s="3">
+        <v>17488000</v>
+      </c>
+      <c r="N54" s="3">
         <v>17561000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E57" s="3">
         <v>535000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>583000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>561000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>507000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>540000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>564000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>534000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>357000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>437000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>453000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,121 +2544,130 @@
         <v>15000</v>
       </c>
       <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
         <v>5782000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5781000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5701000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6446000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17306000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1019000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1022000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="E59" s="3">
         <v>901000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>882000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>815000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>862000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>819000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>847000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>832000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1566000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1348000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1265000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1451000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1480000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1391000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7151000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7140000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7112000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7812000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19229000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2804000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2740000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7957000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7968000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6996000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7007000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10949000</v>
       </c>
       <c r="H61" s="3">
         <v>10949000</v>
@@ -2536,57 +2679,63 @@
         <v>10949000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>16450000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16438000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2462000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2527000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2456000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3690000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3606000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3652000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3803000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2752000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2628000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2486000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12077000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11881000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11003000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10854000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21790000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21695000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21713000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22564000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21981000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21882000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21664000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E72" s="3">
         <v>414000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>225000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>99000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4678000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4385000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4248000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E81" s="3">
         <v>189000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>126000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4580000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-181000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-186000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-162000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-345000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E83" s="3">
         <v>282000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>273000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>298000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>387000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>394000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>392000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>397000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>415000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>420000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>422000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E89" s="3">
         <v>468000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>603000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-939000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>665000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>497000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>542000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>473000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>477000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>405000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>246000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-447000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-559000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-377000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-385000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-384000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-356000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-314000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-225000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-328000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-318000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1345000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-548000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-376000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-379000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-380000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-334000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-313000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>910000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-282000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-314000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-315000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E100" s="3">
         <v>997000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>197000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-102000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-754000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>485000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E102" s="3">
         <v>917000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>217000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1121000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>278000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-525000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1359000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>182000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>416000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1447000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1543000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1576000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1616000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1676000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1695000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1726000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1801000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1933000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1942000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1997000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E9" s="3">
         <v>553000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>546000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>590000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>606000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>620000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>629000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>657000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>685000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>730000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>729000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>771000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>913000</v>
+      </c>
+      <c r="E10" s="3">
         <v>894000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>997000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>986000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1010000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1056000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1066000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1069000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1116000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1203000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1213000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1226000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
         <v>54000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4180000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>210000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>134000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>370000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>175000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>171000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>333000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E15" s="3">
         <v>284000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>282000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>273000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>298000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>387000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>394000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>392000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>397000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>415000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>420000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>422000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1326000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1271000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1292000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-2878000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1442000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1626000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1587000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1859000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1764000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1778000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1971000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E18" s="3">
         <v>121000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>272000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>284000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4494000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>234000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>69000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>139000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-58000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>169000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>164000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E20" s="3">
         <v>77000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-37000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-14000</v>
       </c>
       <c r="J20" s="3">
         <v>-14000</v>
       </c>
       <c r="K20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E21" s="3">
         <v>482000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>588000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>520000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4789000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>623000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>449000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>517000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>319000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>589000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>575000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>438000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E22" s="3">
         <v>103000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>105000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>90000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>91000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>89000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>98000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>121000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>160000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>383000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>391000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>382000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E23" s="3">
         <v>95000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>201000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>157000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-238000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-209000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-236000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-366000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-180000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>87000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-57000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-74000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E26" s="3">
         <v>65000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>189000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>126000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4580000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-181000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-186000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-162000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-345000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E27" s="3">
         <v>65000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>189000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>126000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4580000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-181000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-186000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-162000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-345000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-77000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>37000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>14000</v>
       </c>
       <c r="J32" s="3">
         <v>14000</v>
       </c>
       <c r="K32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E33" s="3">
         <v>65000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>189000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>126000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4580000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-181000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-186000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-162000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-345000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E35" s="3">
         <v>65000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>189000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>126000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4580000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-181000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-186000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-162000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-345000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,57 +1966,61 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2127000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1211000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>993000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2107000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1829000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1767000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2290000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>941000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>760000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>683000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="E42" s="3">
         <v>900000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1947,8 +2037,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E43" s="3">
         <v>428000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>488000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>482000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>521000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>562000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>638000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>666000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>681000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>652000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>682000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>709000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,113 +2140,122 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E45" s="3">
         <v>60000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>94000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>111000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>178000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>187000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>205000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>248000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1609000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1595000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1617000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2688000</v>
+        <v>3502000</v>
       </c>
       <c r="E46" s="3">
         <v>2688000</v>
       </c>
       <c r="F46" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1787000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1625000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2847000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2654000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2638000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3219000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3202000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3037000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3009000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>9000</v>
       </c>
       <c r="J47" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="K47" s="3">
         <v>8000</v>
@@ -2158,8 +2263,8 @@
       <c r="L47" s="3">
         <v>8000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>8000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10108000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9575000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9199000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8918000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8686000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12931000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12858000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12845000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12890000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13167000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4067000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4147000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4227000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4307000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4389000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>598000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>677000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>757000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>838000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>921000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1020000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1120000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E52" s="3">
         <v>345000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>367000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>376000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>402000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>519000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>524000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>526000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>557000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>467000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>264000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>263000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18035000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16755000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16481000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15388000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15102000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16960000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16795000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16787000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17467000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>17488000</v>
       </c>
       <c r="M54" s="3">
         <v>17488000</v>
       </c>
       <c r="N54" s="3">
+        <v>17488000</v>
+      </c>
+      <c r="O54" s="3">
         <v>17561000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E57" s="3">
         <v>694000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>535000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>583000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>561000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>507000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>540000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>564000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>357000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>437000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>453000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2547,130 +2681,139 @@
         <v>15000</v>
       </c>
       <c r="H58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3">
         <v>5782000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5781000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5701000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6446000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17306000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1019000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1022000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1004000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>901000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>882000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>815000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>862000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>819000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>847000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>832000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1566000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1348000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1265000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1713000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1451000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1480000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1391000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7151000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7140000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7112000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7812000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19229000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2804000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2740000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9130000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7957000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7968000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6996000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7007000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10949000</v>
       </c>
       <c r="I61" s="3">
         <v>10949000</v>
@@ -2682,60 +2825,66 @@
         <v>10949000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>16450000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16438000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2330000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2407000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2462000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2527000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2456000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3690000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3606000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3652000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3803000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2752000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2628000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2486000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13239000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12077000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11881000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11003000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10854000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21790000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21695000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21713000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22564000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21981000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21882000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21664000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E72" s="3">
         <v>479000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>414000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>225000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4796000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4678000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4600000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4385000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4248000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E81" s="3">
         <v>65000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>189000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>126000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4580000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-181000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-186000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-162000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-345000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E83" s="3">
         <v>284000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>282000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>273000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>298000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>387000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>394000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>392000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>397000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>415000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>420000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>422000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E89" s="3">
         <v>528000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>468000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>603000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-939000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>665000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>497000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>542000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>473000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>477000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>405000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>246000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-641000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-447000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-559000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-377000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-385000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-384000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-356000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-314000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-225000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-328000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-318000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2040000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1345000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-548000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-376000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-379000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-380000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-334000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-313000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>910000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-282000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-314000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-315000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>997000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>197000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-102000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-754000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>485000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-641000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-829000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>917000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>217000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1121000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>278000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-525000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1359000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>182000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>416000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1459000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1447000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1543000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1576000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1616000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1676000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1695000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1726000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1801000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1933000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1942000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1997000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>546000</v>
+        <v>526000</v>
       </c>
       <c r="E9" s="3">
-        <v>553000</v>
+        <v>544000</v>
       </c>
       <c r="F9" s="3">
         <v>546000</v>
       </c>
       <c r="G9" s="3">
+        <v>553000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>546000</v>
+      </c>
+      <c r="I9" s="3">
         <v>590000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>606000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>620000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>629000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>657000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>685000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>730000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>729000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>771000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900000</v>
+      </c>
+      <c r="F10" s="3">
         <v>913000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>894000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>997000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>986000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1010000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1056000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1066000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1069000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1116000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1203000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1213000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1226000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="E14" s="3">
         <v>54000</v>
       </c>
       <c r="F14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>54000</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-4180000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>210000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>134000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>370000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>175000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>171000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>333000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>296000</v>
+      </c>
+      <c r="F15" s="3">
         <v>290000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>284000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>282000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>273000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>298000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>387000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>394000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>392000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>397000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>415000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>420000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>422000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1293000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1326000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1271000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1292000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-2878000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1442000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1626000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1587000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1859000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1764000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1778000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1971000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F18" s="3">
         <v>166000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>121000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>272000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>284000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4494000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>234000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>69000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>139000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-58000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>169000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>164000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>211000</v>
+      </c>
+      <c r="F20" s="3">
         <v>122000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>77000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-37000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-10000</v>
       </c>
       <c r="P20" s="3">
         <v>-9000</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>626000</v>
+      </c>
+      <c r="F21" s="3">
         <v>578000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>482000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>588000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>520000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4789000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>623000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>449000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>517000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>319000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>589000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>575000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>438000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F22" s="3">
         <v>118000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>103000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>105000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>90000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>91000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>89000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>98000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>121000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>160000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>383000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>391000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>382000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>195000</v>
+      </c>
+      <c r="F23" s="3">
         <v>170000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>95000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>201000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>157000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4400000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>147000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-43000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-238000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-209000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-236000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-366000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F24" s="3">
         <v>69000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-180000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>87000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-57000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-74000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F26" s="3">
         <v>101000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>189000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>126000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4580000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-181000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-186000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-162000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-345000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F27" s="3">
         <v>101000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>189000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>126000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4580000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-50000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-181000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-186000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-162000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-345000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-211000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-122000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-77000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>37000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>9000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>10000</v>
       </c>
       <c r="P32" s="3">
         <v>9000</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F33" s="3">
         <v>101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>189000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>126000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4580000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-50000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-181000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-186000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-162000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-345000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F35" s="3">
         <v>101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>189000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>126000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4580000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-50000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-181000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-186000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-162000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-345000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,66 +2138,74 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F41" s="3">
         <v>678000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2127000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1211000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>993000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2107000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1829000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1767000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2290000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>941000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>760000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>683000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F42" s="3">
         <v>2300000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>900000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2040,11 +2219,11 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>443000</v>
+      </c>
+      <c r="F43" s="3">
         <v>445000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>428000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>488000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>482000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>521000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>562000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>638000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>666000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>681000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>652000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>682000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>709000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F45" s="3">
         <v>79000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>60000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>73000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>94000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>111000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>178000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>187000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>205000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>248000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1609000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1595000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1617000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2597000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3078000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3502000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2688000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2688000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1787000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1625000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2847000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2654000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2638000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3219000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3202000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3037000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3009000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,8 +2451,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2251,120 +2460,138 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>9000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>8000</v>
       </c>
       <c r="M47" s="3">
         <v>8000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O47" s="3">
+        <v>8000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11850000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10847000</v>
+      </c>
+      <c r="F48" s="3">
         <v>10108000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9575000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9199000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8918000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8686000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12987000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12931000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12858000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12845000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12890000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13167000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3906000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3986000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4067000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4147000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4227000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4307000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4389000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>598000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>677000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>757000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>838000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>921000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1020000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1120000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>362000</v>
+      </c>
+      <c r="F52" s="3">
         <v>358000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>345000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>367000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>376000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>402000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>519000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>524000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>526000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>557000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>467000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>264000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>263000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18624000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18273000</v>
+      </c>
+      <c r="F54" s="3">
         <v>18035000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16755000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16481000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15388000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15102000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16960000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16795000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16787000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17467000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17488000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17488000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17561000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>995000</v>
+      </c>
+      <c r="F57" s="3">
         <v>818000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>694000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>535000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>583000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>561000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>507000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>540000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>564000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>534000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>357000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>437000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>453000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2684,142 +2951,160 @@
         <v>15000</v>
       </c>
       <c r="I58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5782000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5781000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5701000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6446000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17306000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1019000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1022000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>967000</v>
+      </c>
+      <c r="F59" s="3">
         <v>946000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1004000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>901000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>882000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>815000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>862000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>819000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>847000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>832000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1566000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1348000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1265000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2295000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1977000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1779000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1713000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1451000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1480000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1391000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7151000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7140000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7112000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7812000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19229000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2804000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2740000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9110000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9120000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9130000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7957000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7968000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6996000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7007000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10949000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>10949000</v>
       </c>
       <c r="K61" s="3">
         <v>10949000</v>
@@ -2828,63 +3113,75 @@
         <v>10949000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="N61" s="3">
+        <v>10949000</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>16450000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16438000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2243000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2330000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2407000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2462000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2527000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2456000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3690000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3606000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3652000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3803000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2752000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2628000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2486000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13490000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13340000</v>
+      </c>
+      <c r="F66" s="3">
         <v>13239000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12077000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11881000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11003000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10854000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21790000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21695000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21713000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22564000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21981000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21882000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21664000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>700000</v>
+      </c>
+      <c r="F72" s="3">
         <v>580000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>479000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>414000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>225000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>99000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5134000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4933000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4796000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4678000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4600000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4385000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4248000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F81" s="3">
         <v>101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>189000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>126000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4580000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-50000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-181000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-186000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-162000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-345000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>296000</v>
+      </c>
+      <c r="F83" s="3">
         <v>290000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>284000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>282000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>273000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>298000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>387000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>394000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>392000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>397000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>415000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>420000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>422000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>284000</v>
+      </c>
+      <c r="F89" s="3">
         <v>229000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>528000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>468000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>603000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-939000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>665000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>497000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>542000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>473000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>477000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>405000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>246000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-878000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-772000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-641000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-447000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-559000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-377000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-385000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-384000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-356000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-314000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-225000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-286000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-328000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-318000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-290000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-793000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2040000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1345000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-548000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-376000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-379000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-380000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-334000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-313000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>910000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-282000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-314000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-315000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>61000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1170000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>997000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>197000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-102000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-754000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>485000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-448000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-641000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-829000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>917000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>217000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1121000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>278000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>61000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-525000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1359000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>182000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>77000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>416000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>148000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FYBR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>FYBR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1437000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1444000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1459000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1447000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1543000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1576000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1616000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1676000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1695000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1726000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1801000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1933000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1942000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1997000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2067000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>542000</v>
+      </c>
+      <c r="F9" s="3">
         <v>526000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>544000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>546000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>553000</v>
       </c>
       <c r="H9" s="3">
         <v>546000</v>
       </c>
       <c r="I9" s="3">
+        <v>553000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K9" s="3">
         <v>590000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>606000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>620000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>629000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>657000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>685000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>730000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>729000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>771000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>763000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>921000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>898000</v>
+      </c>
+      <c r="F10" s="3">
         <v>911000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>913000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>894000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>997000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>986000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1010000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1056000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1066000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1069000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1116000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1203000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1213000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1226000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1304000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1042,126 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F14" s="3">
         <v>16000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>54000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>30000</v>
       </c>
       <c r="G14" s="3">
         <v>54000</v>
       </c>
       <c r="H14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-4180000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>210000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>134000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>370000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>175000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>171000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>333000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>5864000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F15" s="3">
         <v>312000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>296000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>290000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>284000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>282000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>273000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>298000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>387000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>394000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>392000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>397000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>415000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>420000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>422000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1306000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1325000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1293000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1326000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1271000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1292000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-2878000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1442000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1626000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1587000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1859000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1764000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1778000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1971000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7526000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F18" s="3">
         <v>131000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>119000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>166000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>121000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>272000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>284000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4494000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>234000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>69000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>139000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-58000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>169000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>164000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5459000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1311,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>144000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>211000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>122000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>77000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-37000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-10000</v>
       </c>
       <c r="R20" s="3">
         <v>-9000</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>475000</v>
+      </c>
+      <c r="F21" s="3">
         <v>587000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>626000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>578000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>482000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>588000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>520000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4789000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>623000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>449000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>517000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>589000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>575000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>438000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5014000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>141000</v>
+      </c>
+      <c r="F22" s="3">
         <v>136000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>135000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>118000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>103000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>105000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>90000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>91000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>89000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>98000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>121000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>160000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>383000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>391000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>382000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>383000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>139000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>195000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>170000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>95000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>201000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>157000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4400000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>147000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-43000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-238000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-209000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-366000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5851000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>75000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>31000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-180000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>87000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-57000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-534000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>155000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>120000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>101000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>65000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>189000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>126000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4580000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-186000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-345000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>155000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>120000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>101000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>65000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>189000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>126000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4580000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>60000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-50000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-181000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-186000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-345000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-144000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-211000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-122000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-77000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>37000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>9000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>10000</v>
       </c>
       <c r="R32" s="3">
         <v>9000</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T32" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>155000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>120000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>189000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>126000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4580000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>60000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-50000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-181000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-186000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-345000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>155000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>120000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>189000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>126000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4580000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>60000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-50000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-181000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-186000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-345000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,78 +2312,86 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="F41" s="3">
         <v>322000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>230000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>678000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2127000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1211000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>993000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2107000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1829000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1767000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2290000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>941000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>760000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>683000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>267000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>900000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1750000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2325000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2300000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>900000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2225,11 +2405,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2240,58 +2420,70 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>449000</v>
+      </c>
+      <c r="F43" s="3">
         <v>468000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>443000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>445000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>428000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>488000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>482000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>521000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>562000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>638000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>666000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>681000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>652000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>682000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>709000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>734000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2532,294 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F45" s="3">
         <v>57000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>80000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>79000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>60000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>73000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>94000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>111000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>178000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>187000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>205000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>248000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1609000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1595000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1617000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1613000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1761000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2544000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2597000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3078000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3502000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2688000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2688000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1787000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1625000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2847000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2654000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2638000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3219000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3202000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3037000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3009000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2614000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>9000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>8000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>8000</v>
       </c>
       <c r="O47" s="3">
         <v>8000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>8000</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13353000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12748000</v>
+      </c>
+      <c r="F48" s="3">
         <v>11850000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10847000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10108000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9575000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9199000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>8918000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8686000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12987000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12931000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12858000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12845000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12890000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13167000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>13169000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13197000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3746000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3906000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3986000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4067000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4147000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4227000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4307000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4389000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>598000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>677000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>757000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>838000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>921000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1020000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1120000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1497000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F52" s="3">
         <v>271000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>362000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>358000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>345000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>367000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>376000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>402000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>519000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>524000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>526000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>557000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>467000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>264000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>263000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>257000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19150000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19398000</v>
+      </c>
+      <c r="F54" s="3">
         <v>18624000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18273000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18035000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16755000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16481000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15388000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15102000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16960000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16795000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16787000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17467000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17488000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17488000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17561000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17565000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1368000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1410000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>995000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>818000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>694000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>535000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>583000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>561000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>507000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>540000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>564000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>534000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>357000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>437000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>453000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2957,160 +3225,178 @@
         <v>15000</v>
       </c>
       <c r="K58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M58" s="3">
         <v>5782000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5781000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5701000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6446000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>17306000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1019000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1022000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>468000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>928000</v>
+      </c>
+      <c r="F59" s="3">
         <v>870000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>967000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>946000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1004000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>901000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>882000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>815000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>862000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>819000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>847000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>832000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1566000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1265000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1380000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2311000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2295000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1977000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1779000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1713000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1451000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1480000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1391000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7151000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7140000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7112000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7812000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19229000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2804000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2740000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9829000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9839000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9110000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9120000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9130000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7957000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7968000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6996000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7007000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>10949000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>10949000</v>
       </c>
       <c r="M61" s="3">
         <v>10949000</v>
@@ -3119,69 +3405,81 @@
         <v>10949000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>10949000</v>
       </c>
       <c r="P61" s="3">
+        <v>10949000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>16450000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16438000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>16488000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2085000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2243000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2330000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2407000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2462000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2527000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2456000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3690000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3606000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3652000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3803000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2752000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2628000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2486000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2548000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13958000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14235000</v>
+      </c>
+      <c r="F66" s="3">
         <v>13490000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13340000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13239000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12077000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11881000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11003000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10854000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21790000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21695000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21713000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22564000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21981000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21882000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21664000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21336000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>858000</v>
+      </c>
+      <c r="F72" s="3">
         <v>855000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>700000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>580000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>479000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>414000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>225000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>99000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8915000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8975000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8925000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8940000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8759000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8411000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8067000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5192000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5163000</v>
+      </c>
+      <c r="F76" s="3">
         <v>5134000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4933000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4796000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4678000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4600000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4385000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4248000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4830000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4900000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4926000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5097000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4493000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4103000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3771000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>155000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>120000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>189000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>126000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4580000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>60000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-50000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-181000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-186000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-345000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5317000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F83" s="3">
         <v>312000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>296000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>290000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>284000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>282000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>273000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>298000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>387000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>394000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>392000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>397000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>415000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>420000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>422000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>454000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>389000</v>
+      </c>
+      <c r="F89" s="3">
         <v>360000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>284000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>229000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>528000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>468000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>603000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-939000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>665000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>497000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>542000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>473000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>477000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>405000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>246000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1154000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-878000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-772000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-641000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-447000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-559000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-377000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-385000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-384000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-356000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-314000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-225000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-286000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-318000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-275000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-728000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-290000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-793000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2040000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1345000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-548000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-376000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-379000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-380000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-334000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-313000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>910000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-282000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-315000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-274000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>725000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>61000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1170000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>997000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>197000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-102000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-754000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>485000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-153000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-470000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>810000</v>
+      </c>
+      <c r="F102" s="3">
         <v>62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-448000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-641000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-829000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>917000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>217000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1121000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>278000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>61000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-525000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1359000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>182000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>77000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>416000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>148000</v>
       </c>
     </row>
